--- a/Tests/Data/Booking_data.xlsx
+++ b/Tests/Data/Booking_data.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phand\OneDrive\Documents\ĐBCLPM\reup-demoheotelbooking\Tests\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Bảo đảm chất lượng PM\reup-demoheotelbooking\Tests\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAB048E-ACD9-4640-9619-F34F31DDF3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90055911-8AD6-49E3-B29E-65178874E9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2523E686-912C-48AE-BA16-D2E01E9B17FD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20550" windowHeight="15270" activeTab="2" xr2:uid="{2523E686-912C-48AE-BA16-D2E01E9B17FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Booking" sheetId="1" r:id="rId1"/>
-    <sheet name="Manager_Booking" sheetId="2" r:id="rId2"/>
-    <sheet name="Test_Booking_And_Verify_Info" sheetId="3" r:id="rId3"/>
+    <sheet name="Test_Booking_And_Verify_Info" sheetId="3" r:id="rId2"/>
+    <sheet name="Manager_Booking" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
   <si>
     <t>Testcase</t>
   </si>
@@ -98,6 +98,9 @@
     <t>Đặt phòng thành công!</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>http://localhost:5145/Booking/PaymentSuccess</t>
   </si>
   <si>
@@ -107,9 +110,6 @@
     <t>Họ và tên là bắt buộc</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>http://localhost:5145/booking/Booking</t>
   </si>
   <si>
@@ -152,34 +152,37 @@
     <t>TC008</t>
   </si>
   <si>
+    <t>TC009</t>
+  </si>
+  <si>
     <t>Tên Đăng Nhập</t>
   </si>
   <si>
     <t>Mật khẩu</t>
   </si>
   <si>
+    <t>Info_Booking</t>
+  </si>
+  <si>
+    <t>Info_Test</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
+  </si>
+  <si>
     <t>admin</t>
   </si>
   <si>
-    <t>Khách hàng: test, Số điện thoại: 123456799, Ngày nhận phòng: 4/5/2025 12:00:00 AM, Ngày trả phòng: 4/9/2025 12:00:00 AM, Trạng thái: Đã đặt cọc</t>
-  </si>
-  <si>
-    <t>Info_Booking</t>
-  </si>
-  <si>
-    <t>Info_Test</t>
-  </si>
-  <si>
-    <t>Pass/Fail</t>
-  </si>
-  <si>
-    <t>aaaaa</t>
-  </si>
-  <si>
     <t>Khách hàng: aaaaa, Số điện thoại: 3333333, Ngày nhận phòng: 5/6/2025 12:00:00 AM, Ngày trả phòng: 5/13/2025 12:00:00 AM</t>
   </si>
   <si>
-    <t>TC009</t>
+    <t>Khách hàng: aaaaa, Số điện thoại: 3333333, Ngày nhận phòng: 5/6/2025 12:00:00 AM, Ngày trả phòng: 1/1/0001 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>Khách hàng: aaaaa, Số điện thoại: 3333333, Ngày nhận phòng: 5/6/2025 12:00:00 AM, Ngày trả phòng: 1/1/0001 12:00:00 AM, Trạng thái: Đã đặt cọc</t>
   </si>
 </sst>
 </file>
@@ -189,18 +192,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -223,11 +218,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,10 +268,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -294,9 +286,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -334,7 +326,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -440,7 +432,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -582,7 +574,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -592,27 +584,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781D34A6-19E8-437A-9DE5-F92CE159431B}">
   <dimension ref="A6:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="6" customWidth="1"/>
-    <col min="5" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="22.77734375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="6" customWidth="1"/>
+    <col min="5" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
-    <col min="12" max="12" width="28.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="12" max="12" width="28.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -689,15 +681,15 @@
         <v>19</v>
       </c>
       <c r="M7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8">
@@ -715,19 +707,19 @@
       <c r="I8" s="11"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>25</v>
       </c>
@@ -753,13 +745,13 @@
         <v>26</v>
       </c>
       <c r="M9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>27</v>
       </c>
@@ -785,13 +777,13 @@
         <v>28</v>
       </c>
       <c r="M10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
@@ -817,13 +809,13 @@
         <v>30</v>
       </c>
       <c r="M11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -847,13 +839,13 @@
         <v>32</v>
       </c>
       <c r="M12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>34</v>
       </c>
@@ -880,10 +872,10 @@
         <v>36</v>
       </c>
       <c r="N13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -918,15 +910,18 @@
         <v>19</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>14</v>
@@ -942,76 +937,124 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A73D40-2E35-4770-A749-7AD720A3C652}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBBB7EA-944A-4D56-9359-B05A4C2758FD}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="158.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="155.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <f>IF(TRIM(CLEAN(D2))=TRIM(CLEAN(E2)), "Pass", "Fail")</f>
-        <v>Pass</v>
-      </c>
-      <c r="K2" s="13"/>
+      <c r="B2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="13">
+        <v>3333333</v>
+      </c>
+      <c r="D2" s="14">
+        <v>45783</v>
+      </c>
+      <c r="E2" s="14">
+        <v>45790</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="16">
+        <v>45853</v>
+      </c>
+      <c r="I2" s="13">
+        <v>123456</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="1" t="str">
+        <f>IF(TRIM(CLEAN(L2))=TRIM(CLEAN(M2)), "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1019,115 +1062,69 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBBB7EA-944A-4D56-9359-B05A4C2758FD}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A73D40-2E35-4770-A749-7AD720A3C652}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="155.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="158.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="13">
-        <v>3333333</v>
-      </c>
-      <c r="D2" s="14">
-        <v>45783</v>
-      </c>
-      <c r="E2" s="14">
-        <v>45790</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="16">
-        <v>45853</v>
-      </c>
-      <c r="I2" s="13">
-        <v>123456</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>IF(TRIM(CLEAN(D2))=TRIM(CLEAN(E2)), "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="K2" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
